--- a/data/trans_orig/P17_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>378115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>356298</v>
+        <v>352882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>401775</v>
+        <v>398435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6502940999281408</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6127723197052997</v>
+        <v>0.6068965181438566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6909847418522502</v>
+        <v>0.6852408241237675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>727</v>
@@ -765,19 +765,19 @@
         <v>754568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>731356</v>
+        <v>730344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>779304</v>
+        <v>779107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.818107861154304</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7929415927071192</v>
+        <v>0.7918446922693693</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8449270026521764</v>
+        <v>0.8447128235361658</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1105</v>
@@ -786,19 +786,19 @@
         <v>1132683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1100941</v>
+        <v>1097962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1165826</v>
+        <v>1168493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7532211277685922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7321126538182469</v>
+        <v>0.7301319609672492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7752607515061137</v>
+        <v>0.7770339765110164</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>203338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179678</v>
+        <v>183018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225155</v>
+        <v>228571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3497059000718592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3090152581477498</v>
+        <v>0.3147591758762325</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3872276802947004</v>
+        <v>0.3931034818561435</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -836,19 +836,19 @@
         <v>167765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>143029</v>
+        <v>143226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190977</v>
+        <v>191989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.181892138845696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1550729973478241</v>
+        <v>0.1552871764638341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2070584072928816</v>
+        <v>0.2081553077306306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -857,19 +857,19 @@
         <v>371103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337960</v>
+        <v>335293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>402845</v>
+        <v>405824</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2467788722314078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2247392484938864</v>
+        <v>0.2229660234889836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2678873461817533</v>
+        <v>0.269868039032751</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>690835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>659050</v>
+        <v>655826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>722993</v>
+        <v>719615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6438580097391186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6142345053823416</v>
+        <v>0.6112298307646369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6738291153531805</v>
+        <v>0.6706808573765025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>771</v>
@@ -982,19 +982,19 @@
         <v>796261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>770338</v>
+        <v>768334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>822629</v>
+        <v>820422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7536337986306222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7290990048349636</v>
+        <v>0.7272017182050672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7785899463970115</v>
+        <v>0.7765016218242949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1450</v>
@@ -1003,19 +1003,19 @@
         <v>1487096</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1443767</v>
+        <v>1443224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1527361</v>
+        <v>1529376</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6983232143979031</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6779765565287987</v>
+        <v>0.6777216394604773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7172312261152745</v>
+        <v>0.7181772569294561</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>382127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>349969</v>
+        <v>353347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413912</v>
+        <v>417136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3561419902608814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3261708846468195</v>
+        <v>0.3293191426234978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3857654946176585</v>
+        <v>0.3887701692353633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -1053,19 +1053,19 @@
         <v>260301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>233933</v>
+        <v>236140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>286224</v>
+        <v>288228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2463662013693778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2214100536029887</v>
+        <v>0.2234983781757051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2709009951650366</v>
+        <v>0.2727982817949328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>628</v>
@@ -1074,19 +1074,19 @@
         <v>642428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>602163</v>
+        <v>600148</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>685757</v>
+        <v>686300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3016767856020969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2827687738847255</v>
+        <v>0.2818227430705439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3220234434712013</v>
+        <v>0.3222783605395227</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>701473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>668456</v>
+        <v>667203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>731408</v>
+        <v>731300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6254246684511466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5959872853298372</v>
+        <v>0.594870122800611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6521148518755618</v>
+        <v>0.6520182940170449</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>739</v>
@@ -1199,19 +1199,19 @@
         <v>746270</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>718224</v>
+        <v>718818</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>771575</v>
+        <v>773562</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7508202976237122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7226030647131727</v>
+        <v>0.7232005646786311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7762788014920822</v>
+        <v>0.7782786594986774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1433</v>
@@ -1220,19 +1220,19 @@
         <v>1447743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1403159</v>
+        <v>1406395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1487123</v>
+        <v>1490933</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6843391974262746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6632645631634031</v>
+        <v>0.664794287863842</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7029541615316229</v>
+        <v>0.7047550204043365</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>420121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390186</v>
+        <v>390294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453138</v>
+        <v>454391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3745753315488534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3478851481244382</v>
+        <v>0.3479817059829551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.404012714670163</v>
+        <v>0.4051298771993891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -1270,19 +1270,19 @@
         <v>247670</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222365</v>
+        <v>220378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>275716</v>
+        <v>275122</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2491797023762878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2237211985079178</v>
+        <v>0.2217213405013226</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2773969352868272</v>
+        <v>0.2767994353213686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>652</v>
@@ -1291,19 +1291,19 @@
         <v>667791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628411</v>
+        <v>624601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>712375</v>
+        <v>709139</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3156608025737255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.297045838468377</v>
+        <v>0.2952449795956635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3367354368365968</v>
+        <v>0.335205712136158</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>233298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209801</v>
+        <v>211873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256790</v>
+        <v>254585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5237841829693254</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4710296442831165</v>
+        <v>0.4756824784657961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5765251819031479</v>
+        <v>0.5715766156589732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>232</v>
@@ -1416,19 +1416,19 @@
         <v>232892</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214284</v>
+        <v>216510</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247918</v>
+        <v>249961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6845238599597964</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6298312128846916</v>
+        <v>0.6363730844401135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7286878155612601</v>
+        <v>0.7346946611662419</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>463</v>
@@ -1437,19 +1437,19 @@
         <v>466190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>437754</v>
+        <v>437859</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>493025</v>
+        <v>490250</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5933937967294104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5571986983231646</v>
+        <v>0.5573318698983736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.627550278897415</v>
+        <v>0.6240182098795273</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>212111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>188619</v>
+        <v>190824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235608</v>
+        <v>233536</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4762158170306746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.423474818096852</v>
+        <v>0.4284233843410268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5289703557168834</v>
+        <v>0.524317521534204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -1487,19 +1487,19 @@
         <v>107333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92307</v>
+        <v>90264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125941</v>
+        <v>123715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3154761400402036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2713121844387398</v>
+        <v>0.2653053388337581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3701687871153083</v>
+        <v>0.3636269155598864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>309</v>
@@ -1508,19 +1508,19 @@
         <v>319444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292609</v>
+        <v>295384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>347880</v>
+        <v>347775</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4066062032705897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3724497211025849</v>
+        <v>0.3759817901204729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4428013016768348</v>
+        <v>0.4426681301016269</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2003721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1949829</v>
+        <v>1946503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2060496</v>
+        <v>2056717</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6219998006726699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6052703498244366</v>
+        <v>0.6042379870802861</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6396238763411279</v>
+        <v>0.6384509385946998</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2469</v>
@@ -1633,19 +1633,19 @@
         <v>2529991</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2480360</v>
+        <v>2482104</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2577020</v>
+        <v>2576948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7636418149926977</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7486614335281457</v>
+        <v>0.7491877156448928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7778367652240771</v>
+        <v>0.777815031388008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4451</v>
@@ -1654,19 +1654,19 @@
         <v>4533713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4458784</v>
+        <v>4458525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4610423</v>
+        <v>4610328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6938140363161724</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6823474430078833</v>
+        <v>0.6823077514795899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7055534488987945</v>
+        <v>0.7055388758845215</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1217697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1160922</v>
+        <v>1164701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1271589</v>
+        <v>1274915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3780001993273301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3603761236588721</v>
+        <v>0.3615490614053001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3947296501755634</v>
+        <v>0.395762012919714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>763</v>
@@ -1704,19 +1704,19 @@
         <v>783069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>736040</v>
+        <v>736112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>832700</v>
+        <v>830956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2363581850073024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2221632347759231</v>
+        <v>0.2221849686119919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2513385664718543</v>
+        <v>0.2508122843551071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1940</v>
@@ -1725,19 +1725,19 @@
         <v>2000765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1924055</v>
+        <v>1924150</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2075694</v>
+        <v>2075953</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3061859636838275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2944465511012054</v>
+        <v>0.2944611241154785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3176525569921168</v>
+        <v>0.3176922485204101</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>725774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>693348</v>
+        <v>696152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>755631</v>
+        <v>757164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6959234547461189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6648307787033816</v>
+        <v>0.6675198796466901</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7245523637215014</v>
+        <v>0.7260217614229981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>838</v>
@@ -2090,19 +2090,19 @@
         <v>906354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>875161</v>
+        <v>877555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>930175</v>
+        <v>932042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8100616207291894</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7821832964821055</v>
+        <v>0.7843228753042903</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8313526130540678</v>
+        <v>0.8330205867017029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1513</v>
@@ -2111,19 +2111,19 @@
         <v>1632128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1590876</v>
+        <v>1588523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1670741</v>
+        <v>1671492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.754998253887061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.735915639364746</v>
+        <v>0.7348271396056061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7728602580444021</v>
+        <v>0.7732073841540266</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>317120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287263</v>
+        <v>285730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>349546</v>
+        <v>346742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3040765452538811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2754476362784986</v>
+        <v>0.2739782385770015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3351692212966184</v>
+        <v>0.3324801203533097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -2161,19 +2161,19 @@
         <v>212516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188695</v>
+        <v>186828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243709</v>
+        <v>241315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1899383792708106</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1686473869459323</v>
+        <v>0.1669794132982971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2178167035178945</v>
+        <v>0.2156771246957098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>494</v>
@@ -2182,19 +2182,19 @@
         <v>529636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>491023</v>
+        <v>490272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>570888</v>
+        <v>573241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.245001746112939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2271397419555979</v>
+        <v>0.2267926158459734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.264084360635254</v>
+        <v>0.2651728603943939</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>697979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>666540</v>
+        <v>671774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>726365</v>
+        <v>729233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7151333279842425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6829209572365335</v>
+        <v>0.6882840928330884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7442168900223859</v>
+        <v>0.7471548533148288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>842</v>
@@ -2307,19 +2307,19 @@
         <v>902808</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>877197</v>
+        <v>873922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>928169</v>
+        <v>924513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8266417293578722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8031912997976886</v>
+        <v>0.8001918985455578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8498625420762509</v>
+        <v>0.8465153697172143</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1496</v>
@@ -2328,19 +2328,19 @@
         <v>1600789</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1556433</v>
+        <v>1562185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1637292</v>
+        <v>1640300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7740181293104406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7525709114999127</v>
+        <v>0.7553521801663894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7916681748926657</v>
+        <v>0.7931228686859473</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>278034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249648</v>
+        <v>246780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>309473</v>
+        <v>304239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2848666720157576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2557831099776141</v>
+        <v>0.2528451466851714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3170790427634662</v>
+        <v>0.3117159071669116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>176</v>
@@ -2378,19 +2378,19 @@
         <v>189332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163971</v>
+        <v>167627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>214943</v>
+        <v>218218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1733582706421279</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1501374579237491</v>
+        <v>0.1534846302827858</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1968087002023114</v>
+        <v>0.1998081014544426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -2399,19 +2399,19 @@
         <v>467365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>430862</v>
+        <v>427854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>511721</v>
+        <v>505969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2259818706895595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2083318251073343</v>
+        <v>0.2068771313140527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2474290885000873</v>
+        <v>0.2446478198336107</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>645082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>615878</v>
+        <v>616961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>667428</v>
+        <v>672580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7288113427220425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6958174699012327</v>
+        <v>0.6970400157150053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7540578765520882</v>
+        <v>0.7598787431016505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>701</v>
@@ -2524,19 +2524,19 @@
         <v>747974</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>726247</v>
+        <v>722888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>767762</v>
+        <v>767381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8540507829618077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8292420952773853</v>
+        <v>0.8254069543748468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8766451188479216</v>
+        <v>0.8762092056073714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1304</v>
@@ -2545,19 +2545,19 @@
         <v>1393056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1357560</v>
+        <v>1357099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1428522</v>
+        <v>1428988</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7910996584562947</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7709416163158448</v>
+        <v>0.7706802137560249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8112405126304627</v>
+        <v>0.8115049302622828</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>240033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217687</v>
+        <v>212535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269237</v>
+        <v>268154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2711886572779575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2459421234479119</v>
+        <v>0.2401212568983495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3041825300987673</v>
+        <v>0.3029599842849953</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -2595,19 +2595,19 @@
         <v>127822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108034</v>
+        <v>108415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149549</v>
+        <v>152908</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1459492170381924</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1233548811520784</v>
+        <v>0.1237907943926285</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1707579047226146</v>
+        <v>0.1745930456251532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>347</v>
@@ -2616,19 +2616,19 @@
         <v>367855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>332389</v>
+        <v>331923</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>403351</v>
+        <v>403812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2089003415437053</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1887594873695372</v>
+        <v>0.1884950697377173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.229058383684155</v>
+        <v>0.229319786243975</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>352899</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>329787</v>
+        <v>330138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>374392</v>
+        <v>373995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7015556539795017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6556107803139051</v>
+        <v>0.6563083927417067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7442836635895477</v>
+        <v>0.7434949615294666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>321</v>
@@ -2741,19 +2741,19 @@
         <v>350136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>329054</v>
+        <v>329909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>368171</v>
+        <v>367940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7733786910101503</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7268117920259809</v>
+        <v>0.7287002754506667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8132143829117563</v>
+        <v>0.8127039128793427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>646</v>
@@ -2762,19 +2762,19 @@
         <v>703034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>675584</v>
+        <v>672868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>731450</v>
+        <v>730276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7355776932887843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7068571074652605</v>
+        <v>0.7040146240560303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.765309078341796</v>
+        <v>0.764079982424022</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>150124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128631</v>
+        <v>129028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173236</v>
+        <v>172885</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2984443460204984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2557163364104522</v>
+        <v>0.2565050384705335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3443892196860948</v>
+        <v>0.3436916072582932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -2812,19 +2812,19 @@
         <v>102600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84565</v>
+        <v>84796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123682</v>
+        <v>122827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2266213089898496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1867856170882438</v>
+        <v>0.1872960871206572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2731882079740192</v>
+        <v>0.2712997245493332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -2833,19 +2833,19 @@
         <v>252724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224308</v>
+        <v>225482</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>280174</v>
+        <v>282890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2644223067112157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2346909216582041</v>
+        <v>0.2359200175759781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2931428925347394</v>
+        <v>0.2959853759439696</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2421734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2375362</v>
+        <v>2364408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2482344</v>
+        <v>2474799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7108019741511394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.697191336828635</v>
+        <v>0.6939762457191879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7285916284905406</v>
+        <v>0.7263770001041496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2702</v>
@@ -2958,19 +2958,19 @@
         <v>2907272</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2849128</v>
+        <v>2860234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2949866</v>
+        <v>2954476</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8213697698533489</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8049429261247707</v>
+        <v>0.8080804257624602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8334034631321442</v>
+        <v>0.8347059014025081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4959</v>
@@ -2979,19 +2979,19 @@
         <v>5329006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5256565</v>
+        <v>5259583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5403126</v>
+        <v>5405394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7671403363522531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7567119499169083</v>
+        <v>0.7571464537764325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7778103287829833</v>
+        <v>0.7781367139751698</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>985311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>924701</v>
+        <v>932246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1031683</v>
+        <v>1042637</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2891980258488605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2714083715094595</v>
+        <v>0.2736229998958504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3028086631713651</v>
+        <v>0.3060237542808124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>579</v>
@@ -3029,19 +3029,19 @@
         <v>632269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>589675</v>
+        <v>585065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>690413</v>
+        <v>679307</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1786302301466511</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1665965368678561</v>
+        <v>0.1652940985974922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1950570738752295</v>
+        <v>0.1919195742375399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1513</v>
@@ -3050,19 +3050,19 @@
         <v>1617580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1543460</v>
+        <v>1541192</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1690021</v>
+        <v>1687003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.232859663647747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2221896712170167</v>
+        <v>0.2218632860248302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2432880500830917</v>
+        <v>0.2428535462235674</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>878839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>850776</v>
+        <v>849886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>906908</v>
+        <v>905237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7798972874080818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7549935698970552</v>
+        <v>0.7542037398809665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8048063460546879</v>
+        <v>0.8033236944377943</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1001</v>
@@ -3415,19 +3415,19 @@
         <v>1065244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1037164</v>
+        <v>1037096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1089903</v>
+        <v>1089168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8474699907245618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8251304432339754</v>
+        <v>0.8250762947338838</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8670872175405283</v>
+        <v>0.8665025820666524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1834</v>
@@ -3436,19 +3436,19 @@
         <v>1944083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1903968</v>
+        <v>1903652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1980478</v>
+        <v>1979740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8155276270072818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7986994843277875</v>
+        <v>0.7985669057703676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8307950917724148</v>
+        <v>0.8304854557492913</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>248026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219957</v>
+        <v>221628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276089</v>
+        <v>276979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2201027125919182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.195193653945312</v>
+        <v>0.1966763055622056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2450064301029447</v>
+        <v>0.2457962601190334</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3486,19 +3486,19 @@
         <v>191726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167067</v>
+        <v>167802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>219806</v>
+        <v>219874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1525300092754383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1329127824594713</v>
+        <v>0.1334974179333474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1748695567660246</v>
+        <v>0.1749237052661162</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>416</v>
@@ -3507,19 +3507,19 @@
         <v>439752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>403357</v>
+        <v>404095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479867</v>
+        <v>480183</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1844723729927183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1692049082275852</v>
+        <v>0.169514544250709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2013005156722127</v>
+        <v>0.2014330942296325</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>658631</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>630953</v>
+        <v>631779</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>683705</v>
+        <v>684437</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7264338348918474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6959072682770615</v>
+        <v>0.6968180095506796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7540897604334881</v>
+        <v>0.7548971738799234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>747</v>
@@ -3632,19 +3632,19 @@
         <v>796542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>768853</v>
+        <v>769109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>821709</v>
+        <v>820908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.79627861848697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7685981334474249</v>
+        <v>0.7688541872312417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.821437065306562</v>
+        <v>0.8206364141427609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1391</v>
@@ -3653,19 +3653,19 @@
         <v>1455174</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1414823</v>
+        <v>1417532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1492484</v>
+        <v>1489066</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7630715457163073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7419122806643194</v>
+        <v>0.7433330047006756</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7826365109039204</v>
+        <v>0.7808439862280205</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>248032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>222958</v>
+        <v>222226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275710</v>
+        <v>274884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2735661651081526</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2459102395665119</v>
+        <v>0.2451028261200765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3040927317229383</v>
+        <v>0.3031819904493203</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -3703,19 +3703,19 @@
         <v>203789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178622</v>
+        <v>179423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231478</v>
+        <v>231222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.20372138151303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.178562934693438</v>
+        <v>0.1793635858572391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2314018665525752</v>
+        <v>0.2311458127687584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>433</v>
@@ -3724,19 +3724,19 @@
         <v>451821</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>414511</v>
+        <v>417929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>492172</v>
+        <v>489463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2369284542836927</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2173634890960797</v>
+        <v>0.2191560137719795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2580877193356808</v>
+        <v>0.2566669952993244</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>614262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>587610</v>
+        <v>587721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>638296</v>
+        <v>639739</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7497532486945895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7172215352931945</v>
+        <v>0.7173571782666252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7790884679152277</v>
+        <v>0.7808492851995003</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>588</v>
@@ -3849,19 +3849,19 @@
         <v>627774</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>606552</v>
+        <v>606444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>647870</v>
+        <v>648006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8152088578297588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7876499081950858</v>
+        <v>0.7875098992703864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8413040504060347</v>
+        <v>0.8414806519615371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1181</v>
@@ -3870,19 +3870,19 @@
         <v>1242037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1206913</v>
+        <v>1209955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1276600</v>
+        <v>1274805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7814677722371254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7593688315429095</v>
+        <v>0.7612822140135487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8032142951772129</v>
+        <v>0.8020852241627713</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>205024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180990</v>
+        <v>179547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231676</v>
+        <v>231565</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2502467513054105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2209115320847722</v>
+        <v>0.2191507148004997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2827784647068053</v>
+        <v>0.2826428217333747</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -3920,19 +3920,19 @@
         <v>142304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122208</v>
+        <v>122072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163526</v>
+        <v>163634</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1847911421702411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1586959495939653</v>
+        <v>0.1585193480384629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2123500918049142</v>
+        <v>0.2124901007296136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -3941,19 +3941,19 @@
         <v>347327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>312764</v>
+        <v>314559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>382451</v>
+        <v>379409</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2185322277628746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1967857048227872</v>
+        <v>0.1979147758372287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.240631168457091</v>
+        <v>0.2387177859864519</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>340707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317951</v>
+        <v>319683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>361472</v>
+        <v>362701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6738122544034829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6288077771545167</v>
+        <v>0.632234088486306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7148780817101361</v>
+        <v>0.7173087156282874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>341</v>
@@ -4066,19 +4066,19 @@
         <v>369308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>349603</v>
+        <v>349701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>386849</v>
+        <v>388678</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7594000643510913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7188826883227425</v>
+        <v>0.7190833717856185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7954703773063876</v>
+        <v>0.799230789385124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>657</v>
@@ -4087,19 +4087,19 @@
         <v>710015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>678637</v>
+        <v>680436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>737794</v>
+        <v>738615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7157723982000623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6841400642011053</v>
+        <v>0.6859534039461399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7437773182428173</v>
+        <v>0.7446049122099628</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>164934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144169</v>
+        <v>142940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187690</v>
+        <v>185958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.326187745596517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2851219182898638</v>
+        <v>0.2826912843717128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3711922228454833</v>
+        <v>0.3677659115136941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -4137,19 +4137,19 @@
         <v>117007</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99466</v>
+        <v>97637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136712</v>
+        <v>136614</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2405999356489087</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2045296226936124</v>
+        <v>0.2007692106148765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2811173116772574</v>
+        <v>0.2809166282143815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>265</v>
@@ -4158,19 +4158,19 @@
         <v>281941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254162</v>
+        <v>253341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313319</v>
+        <v>311520</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2842276017999377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2562226817571825</v>
+        <v>0.2553950877900371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3158599357988948</v>
+        <v>0.3140465960538601</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2492440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2442205</v>
+        <v>2443522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2541297</v>
+        <v>2545873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7421385921390896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7271810175082596</v>
+        <v>0.7275729044846051</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7566862493041169</v>
+        <v>0.758048497359154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2677</v>
@@ -4283,19 +4283,19 @@
         <v>2858869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2810735</v>
+        <v>2810007</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2904736</v>
+        <v>2903560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8136361886143259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7999372753308578</v>
+        <v>0.7997300674553557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8266900324718401</v>
+        <v>0.8263554497305067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5063</v>
@@ -4304,19 +4304,19 @@
         <v>5351308</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5275193</v>
+        <v>5285353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5419865</v>
+        <v>5419965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7786949354194395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7676189484068282</v>
+        <v>0.7690974353973117</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7886708903080513</v>
+        <v>0.788685560219971</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>866016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>817159</v>
+        <v>812583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>916251</v>
+        <v>914934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2578614078609104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.243313750695883</v>
+        <v>0.2419515026408459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2728189824917403</v>
+        <v>0.2724270955153942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>632</v>
@@ -4354,19 +4354,19 @@
         <v>654825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>608958</v>
+        <v>610134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>702959</v>
+        <v>703687</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1863638113856742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1733099675281599</v>
+        <v>0.1736445502694932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2000627246691423</v>
+        <v>0.2002699325446442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1443</v>
@@ -4375,19 +4375,19 @@
         <v>1520842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1452285</v>
+        <v>1452185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1596957</v>
+        <v>1586797</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2213050645805606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.211329109691948</v>
+        <v>0.2113144397800286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2323810515931717</v>
+        <v>0.2309025646026881</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>352756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>328236</v>
+        <v>325111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>376855</v>
+        <v>375408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.709381435284872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6600728208421471</v>
+        <v>0.6537882967001656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7578426167436911</v>
+        <v>0.7549343792701692</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>729</v>
@@ -4740,19 +4740,19 @@
         <v>509749</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>490443</v>
+        <v>490532</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>527262</v>
+        <v>529499</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8174563052124447</v>
+        <v>0.8174563052124446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7864949258090068</v>
+        <v>0.786638398174978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8455402481475297</v>
+        <v>0.8491277615471637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1075</v>
@@ -4761,19 +4761,19 @@
         <v>862506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>828897</v>
+        <v>828118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>893358</v>
+        <v>891144</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7695082793522694</v>
+        <v>0.7695082793522693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7395232593232608</v>
+        <v>0.7388284573316771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7970343497893024</v>
+        <v>0.7950587153535994</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>144517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120418</v>
+        <v>121865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169037</v>
+        <v>172162</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.290618564715128</v>
+        <v>0.2906185647151281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2421573832563088</v>
+        <v>0.2450656207298308</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3399271791578525</v>
+        <v>0.3462117032998344</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -4811,19 +4811,19 @@
         <v>113831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96318</v>
+        <v>94081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133137</v>
+        <v>133048</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1825436947875552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1544597518524701</v>
+        <v>0.1508722384528362</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2135050741909933</v>
+        <v>0.213361601825022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -4832,19 +4832,19 @@
         <v>258347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>227495</v>
+        <v>229709</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>291956</v>
+        <v>292735</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2304917206477306</v>
+        <v>0.2304917206477305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2029656502106977</v>
+        <v>0.2049412846464005</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2604767406767399</v>
+        <v>0.2611715426683229</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>655982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>618643</v>
+        <v>619528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>689621</v>
+        <v>688074</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6846731528437393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6457009862595694</v>
+        <v>0.6466247634536829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7197833348699675</v>
+        <v>0.7181687405547925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1358</v>
@@ -4957,19 +4957,19 @@
         <v>908698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>884610</v>
+        <v>883088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>934714</v>
+        <v>931838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8143555523977357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7927684732890308</v>
+        <v>0.7914050153429806</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8376710176145783</v>
+        <v>0.8350930645834967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2042</v>
@@ -4978,19 +4978,19 @@
         <v>1564680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1517198</v>
+        <v>1520524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1608053</v>
+        <v>1608508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7544464878415994</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7315522855503209</v>
+        <v>0.7331555518921271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7753601024486768</v>
+        <v>0.7755790683693221</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>302113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>268474</v>
+        <v>270021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339452</v>
+        <v>338567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3153268471562608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2802166651300328</v>
+        <v>0.2818312594452076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3542990137404308</v>
+        <v>0.353375236546317</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>249</v>
@@ -5028,19 +5028,19 @@
         <v>207151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>181135</v>
+        <v>184011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231239</v>
+        <v>232761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1856444476022641</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1623289823854217</v>
+        <v>0.1649069354165033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2072315267109693</v>
+        <v>0.2085949846570194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>473</v>
@@ -5049,19 +5049,19 @@
         <v>509264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>465891</v>
+        <v>465436</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>556746</v>
+        <v>553420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2455535121584005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2246398975513232</v>
+        <v>0.2244209316306776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2684477144496787</v>
+        <v>0.2668444481078727</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>752794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>722397</v>
+        <v>719556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>784547</v>
+        <v>783010</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7210694525890087</v>
+        <v>0.7210694525890085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6919541118065677</v>
+        <v>0.6892324223457933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7514850112766158</v>
+        <v>0.750012392893913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1176</v>
@@ -5174,19 +5174,19 @@
         <v>804640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>777389</v>
+        <v>779076</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>826939</v>
+        <v>827576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7703523952827864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.74426220784436</v>
+        <v>0.7458775567374878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7917007787141276</v>
+        <v>0.792310779546391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1944</v>
@@ -5195,19 +5195,19 @@
         <v>1557434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1512529</v>
+        <v>1513876</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1595482</v>
+        <v>1596300</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.745716984551181</v>
+        <v>0.7457169845511811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7242162087964703</v>
+        <v>0.724860891673026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7639349871113007</v>
+        <v>0.7643265410155835</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>291202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>259449</v>
+        <v>260986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321599</v>
+        <v>324440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2789305474109915</v>
+        <v>0.2789305474109914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2485149887233838</v>
+        <v>0.2499876071060871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3080458881934321</v>
+        <v>0.3107675776542067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>337</v>
@@ -5245,19 +5245,19 @@
         <v>239869</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217570</v>
+        <v>216933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267120</v>
+        <v>265433</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2296476047172136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2082992212858728</v>
+        <v>0.207689220453609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2557377921556402</v>
+        <v>0.2541224432625125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -5266,19 +5266,19 @@
         <v>531071</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>493023</v>
+        <v>492205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>575976</v>
+        <v>574629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.254283015448819</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2360650128886994</v>
+        <v>0.2356734589844162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2757837912035297</v>
+        <v>0.2751391083269738</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>599630</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>560610</v>
+        <v>562927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>631453</v>
+        <v>628261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6179927792299296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5777771389000417</v>
+        <v>0.5801659173449587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6507902315618298</v>
+        <v>0.647499751417099</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>853</v>
@@ -5391,19 +5391,19 @@
         <v>609871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>586187</v>
+        <v>585263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>634546</v>
+        <v>635289</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.675390269892457</v>
+        <v>0.6753902698924572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6491610475232852</v>
+        <v>0.6481387517695265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7027155239327563</v>
+        <v>0.7035381998306481</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1442</v>
@@ -5412,19 +5412,19 @@
         <v>1209502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1171237</v>
+        <v>1166550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1249623</v>
+        <v>1252950</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6456605476731699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6252341927704135</v>
+        <v>0.6227317986987247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6670783633282102</v>
+        <v>0.6688541282654097</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>370657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338834</v>
+        <v>342026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>409677</v>
+        <v>407360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3820072207700704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3492097684381701</v>
+        <v>0.352500248582901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4222228610999584</v>
+        <v>0.4198340826550412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>459</v>
@@ -5462,19 +5462,19 @@
         <v>293120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268445</v>
+        <v>267702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316804</v>
+        <v>317728</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3246097301075429</v>
+        <v>0.324609730107543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2972844760672438</v>
+        <v>0.2964618001693515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3508389524767148</v>
+        <v>0.3518612482304734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>812</v>
@@ -5483,19 +5483,19 @@
         <v>663776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623655</v>
+        <v>620328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>702041</v>
+        <v>706728</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3543394523268301</v>
+        <v>0.35433945232683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3329216366717896</v>
+        <v>0.3311458717345904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3747658072295866</v>
+        <v>0.3772682013012753</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2361161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2300456</v>
+        <v>2304354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2418775</v>
+        <v>2425580</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6805186276007421</v>
+        <v>0.6805186276007422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6630223833473984</v>
+        <v>0.6641459782008207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6971235258060939</v>
+        <v>0.6990850188410882</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4116</v>
@@ -5608,19 +5608,19 @@
         <v>2832959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2785925</v>
+        <v>2781050</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2881288</v>
+        <v>2880708</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7683789437554228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7556217895027025</v>
+        <v>0.7542995651403415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7814869605319977</v>
+        <v>0.781329846284017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6503</v>
@@ -5629,19 +5629,19 @@
         <v>5194121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5116238</v>
+        <v>5116292</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5282146</v>
+        <v>5263775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.725782540835985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7148998636932347</v>
+        <v>0.7149073390495924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7380825046843772</v>
+        <v>0.7355153894193062</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1108489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1050875</v>
+        <v>1044070</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1169194</v>
+        <v>1165296</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3194813723992578</v>
+        <v>0.3194813723992579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.302876474193906</v>
+        <v>0.3009149811589118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3369776166526012</v>
+        <v>0.3358540217991794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1177</v>
@@ -5679,19 +5679,19 @@
         <v>853971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>805642</v>
+        <v>806222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>901005</v>
+        <v>905880</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2316210562445772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2185130394680023</v>
+        <v>0.2186701537159831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2443782104972971</v>
+        <v>0.2457004348596585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2121</v>
@@ -5700,19 +5700,19 @@
         <v>1962459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1874434</v>
+        <v>1892805</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2040342</v>
+        <v>2040288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2742174591640149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2619174953156229</v>
+        <v>0.2644846105806938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2851001363067653</v>
+        <v>0.2850926609504076</v>
       </c>
     </row>
     <row r="18">
